--- a/Excel_Files/Stats_Populations/1_cm/724_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/724_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002973493445794223</v>
+        <v>0.005962518296331772</v>
       </c>
       <c r="D2">
-        <v>0.0004607091885125662</v>
+        <v>0.005814297957812024</v>
       </c>
       <c r="E2">
-        <v>0.000299524197970359</v>
+        <v>0.005790920073134109</v>
       </c>
       <c r="F2">
-        <v>0.0003048075697556724</v>
+        <v>0.005553510298675603</v>
       </c>
       <c r="G2">
-        <v>0.0001923948972552716</v>
+        <v>0.005375902216238513</v>
       </c>
       <c r="H2">
-        <v>0.0004607091885125662</v>
+        <v>0.005962518296331772</v>
       </c>
       <c r="I2">
-        <v>0.000510261593875783</v>
+        <v>0.005953523209768253</v>
       </c>
       <c r="J2">
-        <v>0.0006253329385645232</v>
+        <v>0.006234747846724275</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001497197228805222</v>
+        <v>0.005505647699402803</v>
       </c>
       <c r="D3">
-        <v>0.0004092338369545891</v>
+        <v>0.005419129219771925</v>
       </c>
       <c r="E3">
-        <v>0.0002261240498505425</v>
+        <v>0.005450291130534337</v>
       </c>
       <c r="F3">
-        <v>0.0001102763252497146</v>
+        <v>0.004791888666816539</v>
       </c>
       <c r="G3">
-        <v>0.0001324105331542507</v>
+        <v>0.005049565670536142</v>
       </c>
       <c r="H3">
-        <v>0.0002282528902367913</v>
+        <v>0.005378285901506655</v>
       </c>
       <c r="I3">
-        <v>0.0002465160109173768</v>
+        <v>0.005671511123823232</v>
       </c>
       <c r="J3">
-        <v>0.0001724426403409716</v>
+        <v>0.005392867071014775</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>9.920565132459258E-05</v>
+        <v>0.004969369269676166</v>
       </c>
       <c r="D4">
-        <v>0.000175632045734945</v>
+        <v>0.005091764526126444</v>
       </c>
       <c r="E4">
-        <v>0.0001578516553424382</v>
+        <v>0.005116406064078324</v>
       </c>
       <c r="F4">
-        <v>5.14732142244557E-05</v>
+        <v>0.004390852828960339</v>
       </c>
       <c r="G4">
-        <v>4.80730223097667E-05</v>
+        <v>0.004303769804400209</v>
       </c>
       <c r="H4">
-        <v>0.0001145154497660154</v>
+        <v>0.004925747474864432</v>
       </c>
       <c r="I4">
-        <v>0.0001632721566532703</v>
+        <v>0.005502412964649905</v>
       </c>
       <c r="J4">
-        <v>4.921736264119639E-05</v>
+        <v>0.004594984201754167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.85261847063159E-06</v>
+        <v>0.002356860454233539</v>
       </c>
       <c r="D5">
-        <v>6.573077242600278E-06</v>
+        <v>0.002578116759126199</v>
       </c>
       <c r="E5">
-        <v>5.01106029262809E-06</v>
+        <v>0.002341858240904971</v>
       </c>
       <c r="F5">
-        <v>2.583509682749515E-06</v>
+        <v>0.001957404208150625</v>
       </c>
       <c r="G5">
-        <v>1.763528615006162E-06</v>
+        <v>0.001727467214192067</v>
       </c>
       <c r="H5">
-        <v>3.190904779219165E-06</v>
+        <v>0.002080942249252267</v>
       </c>
       <c r="I5">
-        <v>4.498822593411688E-06</v>
+        <v>0.002303680347399368</v>
       </c>
       <c r="J5">
-        <v>4.301122367910981E-06</v>
+        <v>0.002209565173781276</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.877956938656189E-06</v>
+        <v>0.002007339996015532</v>
       </c>
       <c r="D6">
-        <v>3.564639949887018E-06</v>
+        <v>0.002188152078224356</v>
       </c>
       <c r="E6">
-        <v>2.516583713027343E-06</v>
+        <v>0.001928640464417502</v>
       </c>
       <c r="F6">
-        <v>1.169535391047759E-06</v>
+        <v>0.00149597320458459</v>
       </c>
       <c r="G6">
-        <v>1.046051211716601E-06</v>
+        <v>0.001488560702252528</v>
       </c>
       <c r="H6">
-        <v>1.486291168807117E-06</v>
+        <v>0.001625632630391361</v>
       </c>
       <c r="I6">
-        <v>2.948701862501608E-06</v>
+        <v>0.001951692929823758</v>
       </c>
       <c r="J6">
-        <v>2.39610938011094E-06</v>
+        <v>0.001745209558341229</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.843032232618471E-06</v>
+        <v>0.001751397384141942</v>
       </c>
       <c r="D7">
-        <v>9.501790160610958E-07</v>
+        <v>0.001459440911555614</v>
       </c>
       <c r="E7">
-        <v>7.343415942052777E-07</v>
+        <v>0.001313157795447636</v>
       </c>
       <c r="F7">
-        <v>3.568700805815459E-07</v>
+        <v>0.001041367667944808</v>
       </c>
       <c r="G7">
-        <v>5.320625442515993E-07</v>
+        <v>0.001202331850370595</v>
       </c>
       <c r="H7">
-        <v>3.568700805815459E-07</v>
+        <v>0.001041367667944808</v>
       </c>
       <c r="I7">
-        <v>1.95872134699755E-06</v>
+        <v>0.001762491571581189</v>
       </c>
       <c r="J7">
-        <v>1.254593635034199E-06</v>
+        <v>0.001535232798623454</v>
       </c>
     </row>
   </sheetData>
